--- a/data/trans_orig/P16A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5780D547-E4E8-4B59-AD2F-B43116193FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FE375D-843F-4A94-B3F2-776C074663F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{08D58EA6-65B0-4C3C-A5B7-1B39AE924EC9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB41D74-C0FF-4738-9D30-B7B5C8742F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="174">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>89,58%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,7 +107,7 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>12,96%</t>
+    <t>13,05%</t>
   </si>
   <si>
     <t>18,8%</t>
@@ -119,7 +119,7 @@
     <t>81,2%</t>
   </si>
   <si>
-    <t>87,04%</t>
+    <t>86,95%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>6,77%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,19 +149,19 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -188,37 +188,37 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -230,55 +230,55 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>1,72%</t>
@@ -287,13 +287,13 @@
     <t>0,86%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -302,13 +302,13 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,75%</t>
+    <t>98,72%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -320,19 +320,19 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
@@ -341,73 +341,73 @@
     <t>8,72%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -422,13 +422,13 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>98,73%</t>
+    <t>98,69%</t>
   </si>
   <si>
     <t>99,87%</t>
@@ -437,19 +437,13 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
@@ -461,13 +455,13 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>5,01%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>94,99%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -476,49 +470,49 @@
     <t>6,53%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>93,47%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>95,98%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -536,7 +530,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,05%</t>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -548,25 +542,25 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>99,95%</t>
+    <t>99,96%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
 </sst>
 </file>
@@ -978,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8B134B-59EA-4D45-B373-8A70CA487AC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B674627-41D0-4637-96B8-47385F0F8B70}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3266702A-BE62-456E-96C9-1A79150F63CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69673B3-7F44-4E3B-96F0-894A10656A5A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3332,7 +3326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7004D137-5DBA-4963-AD7C-7E283D2E0FEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EC25D-4834-4419-9568-EC97B33A3BCB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4369,7 +4363,7 @@
         <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>154</v>
@@ -4384,7 +4378,7 @@
         <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,13 +4406,13 @@
         <v>3392209</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>3184</v>
@@ -4427,13 +4421,13 @@
         <v>3392209</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,7 +4503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53219FC5-5412-4C08-98B7-4B061ACAC94E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E9306-3E5C-47E8-998B-C5E3BD336444}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4526,7 +4520,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4646,13 +4640,13 @@
         <v>6281</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4661,13 +4655,13 @@
         <v>6281</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4689,13 @@
         <v>348676</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>203</v>
@@ -4710,13 +4704,13 @@
         <v>348676</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4789,13 @@
         <v>32447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4810,13 +4804,13 @@
         <v>32447</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4838,13 @@
         <v>464254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M8" s="7">
         <v>431</v>
@@ -4859,13 +4853,13 @@
         <v>464254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4938,13 @@
         <v>14915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4959,13 +4953,13 @@
         <v>14915</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4987,13 @@
         <v>567763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -5008,13 +5002,13 @@
         <v>567763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5087,13 @@
         <v>12007</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5108,13 +5102,13 @@
         <v>12007</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5136,13 @@
         <v>733777</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>1121</v>
@@ -5157,13 +5151,13 @@
         <v>733777</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5236,13 @@
         <v>679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5257,13 +5251,13 @@
         <v>679</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,10 +5285,10 @@
         <v>592897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -5306,10 +5300,10 @@
         <v>592897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>45</v>
@@ -5391,13 +5385,13 @@
         <v>1865</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5406,13 +5400,13 @@
         <v>1865</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5434,13 @@
         <v>1023506</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M20" s="7">
         <v>1702</v>
@@ -5455,13 +5449,13 @@
         <v>1023506</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,13 +5534,13 @@
         <v>68194</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -5555,13 +5549,13 @@
         <v>68194</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5583,13 @@
         <v>3730873</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M23" s="7">
         <v>5283</v>
@@ -5604,13 +5598,13 @@
         <v>3730873</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FE375D-843F-4A94-B3F2-776C074663F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3732E1-F261-4602-9923-42BFB29BA02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB41D74-C0FF-4738-9D30-B7B5C8742F0A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6C202B-007F-41EA-8404-47F11541C9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="178">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>10,42%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>89,58%</t>
   </si>
   <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,40 +128,40 @@
     <t>6,77%</t>
   </si>
   <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>96,71%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>97,96%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -191,13 +191,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,44%</t>
+    <t>98,53%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -206,19 +206,19 @@
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -230,250 +230,262 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,44%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>92,61%</t>
+    <t>93,47%</t>
   </si>
   <si>
     <t>90,42%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
   </si>
   <si>
     <t>95,63%</t>
@@ -972,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B674627-41D0-4637-96B8-47385F0F8B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7775818F-A069-47DC-8A5D-3DB2E492521F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1900,7 +1912,7 @@
         <v>657</v>
       </c>
       <c r="I20" s="7">
-        <v>672381</v>
+        <v>672382</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>51</v>
@@ -1915,7 +1927,7 @@
         <v>657</v>
       </c>
       <c r="N20" s="7">
-        <v>672381</v>
+        <v>672382</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>51</v>
@@ -1949,7 +1961,7 @@
         <v>660</v>
       </c>
       <c r="I21" s="7">
-        <v>675978</v>
+        <v>675979</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1964,7 +1976,7 @@
         <v>660</v>
       </c>
       <c r="N21" s="7">
-        <v>675978</v>
+        <v>675979</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2149,7 +2161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69673B3-7F44-4E3B-96F0-894A10656A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE7BCBD-CCD3-4DD7-9991-C6217713A800}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3326,7 +3338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EC25D-4834-4419-9568-EC97B33A3BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB32838F-0266-4215-82E2-A7194609FA93}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4363,7 +4375,7 @@
         <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>154</v>
@@ -4378,7 +4390,7 @@
         <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,13 +4418,13 @@
         <v>3392209</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>3184</v>
@@ -4421,13 +4433,13 @@
         <v>3392209</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,7 +4515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03E9306-3E5C-47E8-998B-C5E3BD336444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294BC01-C955-4464-8230-92286CD193C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4520,7 +4532,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4640,13 +4652,13 @@
         <v>6281</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4655,13 +4667,13 @@
         <v>6281</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4701,13 @@
         <v>348676</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>203</v>
@@ -4704,13 +4716,13 @@
         <v>348676</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4801,13 @@
         <v>32447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -4804,13 +4816,13 @@
         <v>32447</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4850,13 @@
         <v>464254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>431</v>
@@ -4853,13 +4865,13 @@
         <v>464254</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4950,13 @@
         <v>14915</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4953,13 +4965,13 @@
         <v>14915</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4999,13 @@
         <v>567763</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -5002,13 +5014,13 @@
         <v>567763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5099,13 @@
         <v>12007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5102,13 +5114,13 @@
         <v>12007</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5148,13 @@
         <v>733777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>1121</v>
@@ -5151,13 +5163,13 @@
         <v>733777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5248,13 @@
         <v>679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5251,13 +5263,13 @@
         <v>679</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,10 +5297,10 @@
         <v>592897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -5300,10 +5312,10 @@
         <v>592897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>45</v>
@@ -5385,13 +5397,13 @@
         <v>1865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5400,13 +5412,13 @@
         <v>1865</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5446,13 @@
         <v>1023506</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>1702</v>
@@ -5449,13 +5461,13 @@
         <v>1023506</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5546,13 @@
         <v>68194</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -5549,13 +5561,13 @@
         <v>68194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5595,13 @@
         <v>3730873</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>5283</v>
@@ -5598,13 +5610,13 @@
         <v>3730873</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B3732E1-F261-4602-9923-42BFB29BA02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF065841-291C-4A30-8D61-DC95DB181B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9A6C202B-007F-41EA-8404-47F11541C9D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D5EFF2D-4697-4D3D-8CFA-002FB905F69F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="176">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,10 +80,10 @@
     <t>10,42%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>89,58%</t>
   </si>
   <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>15,79%</t>
   </si>
   <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>84,21%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -128,19 +128,19 @@
     <t>6,77%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>93,23%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -149,7 +149,7 @@
     <t>3,29%</t>
   </si>
   <si>
-    <t>2,04%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>5,2%</t>
@@ -161,7 +161,7 @@
     <t>94,8%</t>
   </si>
   <si>
-    <t>97,96%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -188,37 +188,37 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -230,301 +230,295 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>98,28%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>99,75%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>97,51%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -542,7 +536,7 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,04%</t>
+    <t>0,05%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -554,25 +548,25 @@
     <t>99,54%</t>
   </si>
   <si>
-    <t>99,96%</t>
+    <t>99,95%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>98,2%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
   </si>
 </sst>
 </file>
@@ -984,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7775818F-A069-47DC-8A5D-3DB2E492521F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D331A5-9473-4834-B7F2-3125EF9784F3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1912,7 +1906,7 @@
         <v>657</v>
       </c>
       <c r="I20" s="7">
-        <v>672382</v>
+        <v>672381</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>51</v>
@@ -1927,7 +1921,7 @@
         <v>657</v>
       </c>
       <c r="N20" s="7">
-        <v>672382</v>
+        <v>672381</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>51</v>
@@ -1961,7 +1955,7 @@
         <v>660</v>
       </c>
       <c r="I21" s="7">
-        <v>675979</v>
+        <v>675978</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1976,7 +1970,7 @@
         <v>660</v>
       </c>
       <c r="N21" s="7">
-        <v>675979</v>
+        <v>675978</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2161,7 +2155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE7BCBD-CCD3-4DD7-9991-C6217713A800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85451C1C-AFD6-41C8-98B0-CB44FBCF7F74}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3338,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB32838F-0266-4215-82E2-A7194609FA93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D706F9-1DB9-4AF9-8758-A89C3251E328}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4515,7 +4509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F294BC01-C955-4464-8230-92286CD193C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E0FD3-E924-4032-8834-7DECEF56F28D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4953,10 +4947,10 @@
         <v>150</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -4968,10 +4962,10 @@
         <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +4993,13 @@
         <v>567763</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
@@ -5014,13 +5008,13 @@
         <v>567763</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5093,13 @@
         <v>12007</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5114,13 +5108,13 @@
         <v>12007</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5142,13 @@
         <v>733777</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>1121</v>
@@ -5163,13 +5157,13 @@
         <v>733777</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,13 +5242,13 @@
         <v>679</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5263,13 +5257,13 @@
         <v>679</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,10 +5291,10 @@
         <v>592897</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -5312,10 +5306,10 @@
         <v>592897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>45</v>
@@ -5397,13 +5391,13 @@
         <v>1865</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5412,13 +5406,13 @@
         <v>1865</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5440,13 @@
         <v>1023506</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>1702</v>
@@ -5461,13 +5455,13 @@
         <v>1023506</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5540,13 @@
         <v>68194</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -5561,13 +5555,13 @@
         <v>68194</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5589,13 @@
         <v>3730873</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>5283</v>
@@ -5610,13 +5604,13 @@
         <v>3730873</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF065841-291C-4A30-8D61-DC95DB181B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68C6270E-A79D-4A74-8DE0-933778412D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3D5EFF2D-4697-4D3D-8CFA-002FB905F69F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6C8EA175-C86E-46EE-803F-E34B51E3489C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="187">
   <si>
     <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -101,7 +101,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>15,79%</t>
@@ -122,7 +122,7 @@
     <t>87,04%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,77%</t>
@@ -143,7 +143,7 @@
     <t>95,03%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>3,29%</t>
@@ -164,7 +164,7 @@
     <t>98,03%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -182,391 +182,424 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>99,47%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2012 (Tasa respuesta: 50,41%)</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,13%</t>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido anticonceptivos en las dos últimas semanas en 2023 (Tasa respuesta: 61,25%)</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
   </si>
 </sst>
 </file>
@@ -978,8 +1011,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23D331A5-9473-4834-B7F2-3125EF9784F3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAE4D18-668C-4C09-AD13-37415D839690}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1854,34 +1887,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>3597</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,34 +1936,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>657</v>
+        <v>370</v>
       </c>
       <c r="I20" s="7">
-        <v>672381</v>
+        <v>342070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>657</v>
+        <v>370</v>
       </c>
       <c r="N20" s="7">
-        <v>672381</v>
+        <v>342070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="I21" s="7">
-        <v>675978</v>
+        <v>342070</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1967,10 +2000,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>660</v>
+        <v>370</v>
       </c>
       <c r="N21" s="7">
-        <v>675978</v>
+        <v>342070</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1984,7 +2017,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2003,34 +2036,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>214775</v>
+        <v>3597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M22" s="7">
-        <v>208</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>214775</v>
+        <v>3597</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,34 +2085,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3086</v>
+        <v>287</v>
       </c>
       <c r="I23" s="7">
-        <v>3162565</v>
+        <v>330311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M23" s="7">
-        <v>3086</v>
+        <v>287</v>
       </c>
       <c r="N23" s="7">
-        <v>3162565</v>
+        <v>330311</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,48 +2134,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>290</v>
+      </c>
+      <c r="N24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>208</v>
+      </c>
+      <c r="I25" s="7">
+        <v>214775</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="7">
+        <v>208</v>
+      </c>
+      <c r="N25" s="7">
+        <v>214775</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3086</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3162564</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3086</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3162564</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3294</v>
       </c>
-      <c r="I24" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3377339</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3294</v>
       </c>
-      <c r="N24" s="7">
-        <v>3377340</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>60</v>
+      <c r="N27" s="7">
+        <v>3377339</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2155,8 +2338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85451C1C-AFD6-41C8-98B0-CB44FBCF7F74}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F88F7B-693F-452F-900C-0E9417D17C5D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2172,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2292,13 +2475,13 @@
         <v>66141</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" s="7">
         <v>64</v>
@@ -2307,13 +2490,13 @@
         <v>66141</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2524,13 @@
         <v>363198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7">
         <v>356</v>
@@ -2356,13 +2539,13 @@
         <v>363198</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2624,13 @@
         <v>103025</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>94</v>
@@ -2456,13 +2639,13 @@
         <v>103025</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2673,13 @@
         <v>504157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>474</v>
@@ -2505,13 +2688,13 @@
         <v>504157</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2773,13 @@
         <v>52288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7">
         <v>48</v>
@@ -2605,13 +2788,13 @@
         <v>52288</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2822,13 @@
         <v>655366</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>616</v>
@@ -2654,13 +2837,13 @@
         <v>655366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2922,13 @@
         <v>10582</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -2754,13 +2937,13 @@
         <v>10582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2971,13 @@
         <v>603490</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>527</v>
@@ -2803,13 +2986,13 @@
         <v>603490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +3071,13 @@
         <v>1125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2903,13 +3086,13 @@
         <v>1125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,10 +3120,10 @@
         <v>445682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -2952,10 +3135,10 @@
         <v>445682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>45</v>
@@ -3043,7 +3226,7 @@
         <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3058,7 +3241,7 @@
         <v>43</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,31 +3263,31 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>686</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>734761</v>
+        <v>350052</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>686</v>
+        <v>340</v>
       </c>
       <c r="N20" s="7">
-        <v>734761</v>
+        <v>350052</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3129,10 +3312,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>686</v>
+        <v>340</v>
       </c>
       <c r="I21" s="7">
-        <v>734761</v>
+        <v>350052</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3144,10 +3327,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>686</v>
+        <v>340</v>
       </c>
       <c r="N21" s="7">
-        <v>734761</v>
+        <v>350052</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3161,7 +3344,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3180,34 +3363,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>233162</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M22" s="7">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>233162</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,34 +3412,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3063</v>
+        <v>346</v>
       </c>
       <c r="I23" s="7">
-        <v>3306654</v>
+        <v>384708</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3063</v>
+        <v>346</v>
       </c>
       <c r="N23" s="7">
-        <v>3306654</v>
+        <v>384708</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,48 +3461,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>346</v>
+      </c>
+      <c r="I24" s="7">
+        <v>384708</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>346</v>
+      </c>
+      <c r="N24" s="7">
+        <v>384708</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>217</v>
+      </c>
+      <c r="I25" s="7">
+        <v>233162</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="7">
+        <v>217</v>
+      </c>
+      <c r="N25" s="7">
+        <v>233162</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3063</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3306654</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3063</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3306654</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3280</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3539816</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3280</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3539816</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>60</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3332,8 +3665,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D706F9-1DB9-4AF9-8758-A89C3251E328}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE5FC58-6417-41FE-998D-5D360875EF69}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3349,7 +3682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3469,13 +3802,13 @@
         <v>34493</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -3484,13 +3817,13 @@
         <v>34493</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,13 +3851,13 @@
         <v>361262</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
         <v>369</v>
@@ -3533,13 +3866,13 @@
         <v>361262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,13 +3951,13 @@
         <v>62879</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3633,13 +3966,13 @@
         <v>62879</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +4000,13 @@
         <v>500665</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>514</v>
@@ -3682,13 +4015,13 @@
         <v>500665</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +4100,13 @@
         <v>35112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3782,13 +4115,13 @@
         <v>35112</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,13 +4149,13 @@
         <v>626274</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M11" s="7">
         <v>629</v>
@@ -3831,13 +4164,13 @@
         <v>626274</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +4249,13 @@
         <v>16155</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3931,13 +4264,13 @@
         <v>16155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +4298,13 @@
         <v>632922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>587</v>
@@ -3980,13 +4313,13 @@
         <v>632922</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4404,7 @@
         <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4086,7 +4419,7 @@
         <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,7 +4450,7 @@
         <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4132,7 +4465,7 @@
         <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4208,34 +4541,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>3693</v>
+        <v>1022</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>3693</v>
+        <v>1022</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,34 +4590,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>652</v>
+        <v>353</v>
       </c>
       <c r="I20" s="7">
-        <v>774238</v>
+        <v>376740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="M20" s="7">
-        <v>652</v>
+        <v>353</v>
       </c>
       <c r="N20" s="7">
-        <v>774238</v>
+        <v>376740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,10 +4639,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4321,10 +4654,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4338,7 +4671,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4357,34 +4690,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>152333</v>
+        <v>2671</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
-        <v>154</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>152333</v>
+        <v>2671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,34 +4739,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>3184</v>
+        <v>299</v>
       </c>
       <c r="I23" s="7">
-        <v>3392209</v>
+        <v>397498</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" s="7">
+        <v>299</v>
+      </c>
+      <c r="N23" s="7">
+        <v>397498</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="7">
-        <v>3184</v>
-      </c>
-      <c r="N23" s="7">
-        <v>3392209</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,48 +4788,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>301</v>
+      </c>
+      <c r="N24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>154</v>
+      </c>
+      <c r="I25" s="7">
+        <v>152333</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="7">
+        <v>154</v>
+      </c>
+      <c r="N25" s="7">
+        <v>152333</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3184</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3392209</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3184</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3392209</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3338</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>3544542</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>60</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4509,8 +4992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E0FD3-E924-4032-8834-7DECEF56F28D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F19917-D636-493D-9B13-E7270A3C66B1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4526,7 +5009,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4643,31 +5126,31 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>6281</v>
+        <v>5169</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>6281</v>
+        <v>5169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,31 +5175,31 @@
         <v>203</v>
       </c>
       <c r="I5" s="7">
-        <v>348676</v>
+        <v>308031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>203</v>
       </c>
       <c r="N5" s="7">
-        <v>348676</v>
+        <v>308031</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +5224,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4756,7 +5239,7 @@
         <v>207</v>
       </c>
       <c r="N6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4792,31 +5275,31 @@
         <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>32447</v>
+        <v>30892</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>32447</v>
+        <v>30892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,31 +5324,31 @@
         <v>431</v>
       </c>
       <c r="I8" s="7">
-        <v>464254</v>
+        <v>478908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>431</v>
       </c>
       <c r="N8" s="7">
-        <v>464254</v>
+        <v>478908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,7 +5373,7 @@
         <v>458</v>
       </c>
       <c r="I9" s="7">
-        <v>496701</v>
+        <v>509800</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4905,7 +5388,7 @@
         <v>458</v>
       </c>
       <c r="N9" s="7">
-        <v>496701</v>
+        <v>509800</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4941,31 +5424,31 @@
         <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>14915</v>
+        <v>13921</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>14915</v>
+        <v>13921</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,31 +5473,31 @@
         <v>827</v>
       </c>
       <c r="I11" s="7">
-        <v>567763</v>
+        <v>527779</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>827</v>
       </c>
       <c r="N11" s="7">
-        <v>567763</v>
+        <v>527779</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,7 +5522,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582678</v>
+        <v>541700</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5054,7 +5537,7 @@
         <v>845</v>
       </c>
       <c r="N12" s="7">
-        <v>582678</v>
+        <v>541700</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5090,31 +5573,31 @@
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>12007</v>
+        <v>11317</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>12007</v>
+        <v>11317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,31 +5622,31 @@
         <v>1121</v>
       </c>
       <c r="I14" s="7">
-        <v>733777</v>
+        <v>700198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>1121</v>
       </c>
       <c r="N14" s="7">
-        <v>733777</v>
+        <v>700198</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,7 +5671,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>745784</v>
+        <v>711515</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5203,7 +5686,7 @@
         <v>1139</v>
       </c>
       <c r="N15" s="7">
-        <v>745784</v>
+        <v>711515</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5239,31 +5722,31 @@
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>679</v>
+        <v>628</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5771,13 @@
         <v>999</v>
       </c>
       <c r="I17" s="7">
-        <v>592897</v>
+        <v>544259</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>45</v>
@@ -5303,13 +5786,13 @@
         <v>999</v>
       </c>
       <c r="N17" s="7">
-        <v>592897</v>
+        <v>544259</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>45</v>
@@ -5337,7 +5820,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5352,7 +5835,7 @@
         <v>1000</v>
       </c>
       <c r="N18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5385,34 +5868,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1865</v>
+        <v>1311</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1865</v>
+        <v>1311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,34 +5917,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>1702</v>
+        <v>824</v>
       </c>
       <c r="I20" s="7">
-        <v>1023506</v>
+        <v>607057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="M20" s="7">
-        <v>1702</v>
+        <v>824</v>
       </c>
       <c r="N20" s="7">
-        <v>1023506</v>
+        <v>607057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,10 +5966,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5498,10 +5981,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="N21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5515,7 +5998,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5534,34 +6017,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>68194</v>
+        <v>425</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>68194</v>
+        <v>425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,34 +6066,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>5283</v>
+        <v>878</v>
       </c>
       <c r="I23" s="7">
-        <v>3730873</v>
+        <v>424300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="M23" s="7">
-        <v>5283</v>
+        <v>878</v>
       </c>
       <c r="N23" s="7">
-        <v>3730873</v>
+        <v>424300</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,48 +6115,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>879</v>
+      </c>
+      <c r="N24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>72</v>
+      </c>
+      <c r="I25" s="7">
+        <v>63664</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="7">
+        <v>72</v>
+      </c>
+      <c r="N25" s="7">
+        <v>63664</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5283</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3590531</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5283</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3590531</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>5355</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799067</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3654195</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>5355</v>
       </c>
-      <c r="N24" s="7">
-        <v>3799067</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>60</v>
+      <c r="N27" s="7">
+        <v>3654195</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
